--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -362,10 +362,16 @@
     <t>Dati della trascrizione</t>
   </si>
   <si>
+    <t>Nuovo nome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
+  </si>
+  <si>
     <t>Nuovo cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
   </si>
   <si>
     <t>nuovoCognome</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2181,7 +2187,7 @@
         <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>117</v>
@@ -2230,6 +2236,26 @@
         <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -445,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,6 +463,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,65 +485,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -558,1705 +577,1963 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -463,7 +463,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,28 +32,31 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.2</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.2</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -578,1962 +581,1962 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -92,208 +92,163 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -454,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,7 +421,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -684,19 +639,19 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -710,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -719,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -730,10 +685,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -742,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -756,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -765,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -779,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
@@ -788,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
@@ -811,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -822,19 +777,19 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -842,22 +797,22 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -865,22 +820,22 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -888,22 +843,22 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -911,22 +866,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -934,22 +889,22 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -957,22 +912,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -980,22 +935,22 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1003,22 +958,22 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1026,22 +981,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1049,22 +1004,22 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1072,22 +1027,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1095,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -1118,591 +1073,591 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1668,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1691,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1714,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1737,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1760,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1783,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1806,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1829,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1852,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1875,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1898,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1921,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1944,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,19 +1967,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,19 +1990,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2013,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2036,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2059,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2082,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2105,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2128,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2151,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2174,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2197,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2220,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2243,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2266,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2289,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2312,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2335,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2358,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2381,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2404,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2427,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2450,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2518,24 +2473,70 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -2134,7 +2134,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>78</v>
@@ -2272,7 +2272,7 @@
         <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>81</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="111">
   <si>
     <t>Sezione</t>
   </si>
@@ -92,157 +92,151 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.madre</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -421,7 +415,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -668,13 +662,13 @@
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +676,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -691,13 +685,13 @@
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -705,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -714,13 +708,13 @@
         <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -728,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -737,13 +731,13 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -751,7 +745,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -760,13 +754,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -774,22 +768,22 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -797,22 +791,22 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -820,22 +814,22 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -843,22 +837,22 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -866,22 +860,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -889,22 +883,22 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -912,22 +906,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -935,22 +929,22 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -958,22 +952,22 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -981,22 +975,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1004,22 +998,22 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -1027,22 +1021,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1050,22 +1044,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1067,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1082,13 +1076,13 @@
         <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1096,22 +1090,22 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1119,27 +1113,27 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>27</v>
@@ -1148,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>29</v>
@@ -1157,495 +1151,495 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>27</v>
@@ -1654,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>29</v>
@@ -1668,19 +1662,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1685,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1708,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1731,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1754,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1777,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1800,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1823,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1846,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1869,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1892,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1915,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1938,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1961,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1984,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2007,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2030,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2053,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2076,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2099,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2122,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2145,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2168,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2191,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2214,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2237,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2260,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2283,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2306,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2329,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2352,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2375,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2398,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2421,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2444,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2467,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2490,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2513,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -161,6 +161,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -267,6 +273,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -403,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1070,7 +1079,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1093,7 +1102,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1133,19 +1142,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1156,19 +1165,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1179,19 +1188,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1202,19 +1211,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1225,19 +1234,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1248,19 +1257,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1271,19 +1280,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1294,19 +1303,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1317,19 +1326,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1340,19 +1349,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1363,19 +1372,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1386,19 +1395,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1409,19 +1418,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1432,19 +1441,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1464,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1487,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1510,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1533,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1556,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1579,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1602,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1625,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1642,16 +1651,16 @@
         <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1665,16 +1674,16 @@
         <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1694,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1717,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1740,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1763,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1786,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1809,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1832,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1855,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1878,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1901,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1924,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1947,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1970,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1993,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2016,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2039,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2062,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2085,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2108,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2131,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2148,16 +2157,16 @@
         <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2171,16 +2180,16 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2194,16 +2203,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2223,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2246,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2269,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2292,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2315,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2338,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2361,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2384,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2407,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2430,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2453,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2476,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2499,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2513,24 +2522,116 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -233,7 +233,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -233,7 +233,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Madre</t>
@@ -412,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1165,19 +1189,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1188,19 +1212,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1211,19 +1235,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1234,19 +1258,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1257,19 +1281,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1280,19 +1304,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1303,19 +1327,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1326,19 +1350,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1349,19 +1373,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1372,19 +1396,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1395,19 +1419,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1418,19 +1442,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1441,19 +1465,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1488,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1511,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1534,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1557,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1580,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1603,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1626,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1649,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1672,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1695,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1718,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1741,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1764,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1787,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1810,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1833,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1856,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1879,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1902,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1925,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1948,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1971,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1994,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1993,19 +2017,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2040,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2063,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2086,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2109,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2132,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2155,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2178,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2201,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2224,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2247,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2270,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2293,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2316,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2339,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2362,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2385,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2408,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2431,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2454,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2477,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2500,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2499,7 +2523,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -2508,10 +2532,10 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2546,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2569,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2592,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2615,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2614,24 +2638,300 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -110,6 +110,15 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -137,9 +146,6 @@
     <t>Provincia di nascita</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>idProvinciaNascita</t>
   </si>
   <si>
@@ -167,13 +173,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -712,13 +718,13 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -732,7 +738,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -741,7 +747,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -755,7 +761,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -764,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -778,7 +784,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -787,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -801,10 +807,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -827,7 +833,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -850,7 +856,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -873,7 +879,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -896,7 +902,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -919,7 +925,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -942,7 +948,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
@@ -965,7 +971,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
@@ -988,7 +994,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1011,7 +1017,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1034,7 +1040,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>28</v>
@@ -1057,7 +1063,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
@@ -1080,7 +1086,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>28</v>
@@ -1103,7 +1109,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1126,7 +1132,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1149,7 +1155,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1172,7 +1178,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1195,7 +1201,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1218,7 +1224,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>28</v>
@@ -1241,7 +1247,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -1264,7 +1270,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -1281,19 +1287,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1304,19 +1310,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1327,19 +1333,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1350,19 +1356,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1402,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1425,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1448,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1540,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1563,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,16 +1911,16 @@
         <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,16 +1934,16 @@
         <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2207,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2322,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2460,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2483,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2526,16 +2532,16 @@
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2549,16 +2555,16 @@
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2572,16 +2578,16 @@
         <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2598,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2621,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2644,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2713,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2736,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2759,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2782,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2845,19 +2851,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2868,19 +2874,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2897,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2914,24 +2920,93 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1155,7 +1161,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1178,7 +1184,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1310,19 +1316,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1333,19 +1339,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1356,19 +1362,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1385,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1408,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1431,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1454,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1592,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1615,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1632,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1845,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1957,16 +1963,16 @@
         <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1980,16 +1986,16 @@
         <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2052,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2144,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2190,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2443,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2512,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2581,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2601,16 +2607,16 @@
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2624,16 +2630,16 @@
         <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2647,16 +2653,16 @@
         <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2673,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2788,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2857,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2903,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2926,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2949,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2972,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2989,24 +2995,93 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="B114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1184,7 +1190,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1207,7 +1213,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1339,19 +1345,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1368,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1391,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1414,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1483,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1506,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1552,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2009,16 +2015,16 @@
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2032,16 +2038,16 @@
         <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2676,16 +2682,16 @@
         <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2699,16 +2705,16 @@
         <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2722,16 +2728,16 @@
         <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2748,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2771,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2863,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2932,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3064,24 +3070,93 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="B117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -50,6 +50,9 @@
     <t>Atto estero di nascita originale o copia autentica</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
   </si>
   <si>
     <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>idANPR</t>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -581,159 +581,159 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -742,12 +742,12 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -765,12 +765,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
@@ -788,12 +788,12 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
@@ -811,12 +811,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>42</v>
@@ -834,21 +834,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
@@ -857,21 +857,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
@@ -880,21 +880,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
@@ -903,21 +903,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
@@ -926,21 +926,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>52</v>
@@ -949,21 +949,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
@@ -972,21 +972,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -995,21 +995,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -1018,21 +1018,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -1041,21 +1041,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
@@ -1064,21 +1064,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>64</v>
@@ -1087,21 +1087,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
@@ -1110,21 +1110,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>68</v>
@@ -1133,21 +1133,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
@@ -1156,21 +1156,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>72</v>
@@ -1179,21 +1179,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
@@ -1202,12 +1202,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>76</v>
@@ -1225,21 +1225,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
@@ -1248,21 +1248,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>80</v>
@@ -1271,21 +1271,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>82</v>
@@ -1294,21 +1294,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>84</v>
@@ -1317,21 +1317,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
@@ -1340,21 +1340,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>88</v>
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1371,7 +1371,7 @@
         <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1380,13 +1380,13 @@
         <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -1394,7 +1394,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1403,13 +1403,13 @@
         <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1417,10 +1417,10 @@
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>90</v>
@@ -1432,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1478,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1535,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>90</v>
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1558,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>90</v>
@@ -1570,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1581,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>90</v>
@@ -1593,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -1604,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>90</v>
@@ -1616,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1627,7 +1627,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>90</v>
@@ -1639,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1650,7 +1650,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>90</v>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -1673,7 +1673,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>90</v>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1696,7 +1696,7 @@
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>90</v>
@@ -1708,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -1719,7 +1719,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>90</v>
@@ -1731,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -1742,7 +1742,7 @@
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>90</v>
@@ -1754,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -1765,7 +1765,7 @@
         <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>90</v>
@@ -1777,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1788,7 +1788,7 @@
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>90</v>
@@ -1800,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -1811,7 +1811,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>90</v>
@@ -1823,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -1834,7 +1834,7 @@
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>90</v>
@@ -1846,7 +1846,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1857,7 +1857,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>90</v>
@@ -1869,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -1880,7 +1880,7 @@
         <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>90</v>
@@ -1892,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1926,7 +1926,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>90</v>
@@ -1938,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1949,7 +1949,7 @@
         <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -1972,7 +1972,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>90</v>
@@ -1984,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -1995,7 +1995,7 @@
         <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>90</v>
@@ -2007,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -2018,7 +2018,7 @@
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>90</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -2041,7 +2041,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>90</v>
@@ -2053,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -2061,7 +2061,7 @@
         <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2070,13 +2070,13 @@
         <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -2084,7 +2084,7 @@
         <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2093,13 +2093,13 @@
         <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -2107,10 +2107,10 @@
         <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>92</v>
@@ -2122,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -2145,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -2168,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2214,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -2225,7 +2225,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>92</v>
@@ -2237,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -2248,7 +2248,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>92</v>
@@ -2260,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -2271,7 +2271,7 @@
         <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>92</v>
@@ -2283,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2294,7 +2294,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>92</v>
@@ -2306,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>92</v>
@@ -2329,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -2340,7 +2340,7 @@
         <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>92</v>
@@ -2352,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2363,7 +2363,7 @@
         <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>92</v>
@@ -2375,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -2386,7 +2386,7 @@
         <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>92</v>
@@ -2398,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -2409,7 +2409,7 @@
         <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>92</v>
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>92</v>
@@ -2444,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -2455,7 +2455,7 @@
         <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>92</v>
@@ -2467,7 +2467,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -2478,7 +2478,7 @@
         <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>92</v>
@@ -2490,7 +2490,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -2501,7 +2501,7 @@
         <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>92</v>
@@ -2513,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -2524,7 +2524,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>92</v>
@@ -2536,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -2547,7 +2547,7 @@
         <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>92</v>
@@ -2559,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -2570,7 +2570,7 @@
         <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>92</v>
@@ -2582,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -2605,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -2616,7 +2616,7 @@
         <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>92</v>
@@ -2628,7 +2628,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -2651,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -2662,7 +2662,7 @@
         <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>92</v>
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -2685,7 +2685,7 @@
         <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>92</v>
@@ -2697,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -2708,7 +2708,7 @@
         <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>92</v>
@@ -2720,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -2731,7 +2731,7 @@
         <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>92</v>
@@ -2743,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -2766,7 +2766,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
@@ -2789,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -2823,7 +2823,7 @@
         <v>51</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>95</v>
@@ -2835,7 +2835,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -2858,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -2869,7 +2869,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>95</v>
@@ -2881,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -2892,7 +2892,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>95</v>
@@ -2904,7 +2904,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
@@ -2927,7 +2927,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -2950,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
@@ -2961,7 +2961,7 @@
         <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>109</v>
@@ -2973,7 +2973,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -2996,7 +2996,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -3007,7 +3007,7 @@
         <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>109</v>
@@ -3019,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -3065,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -3076,7 +3076,7 @@
         <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>120</v>
@@ -3088,7 +3088,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -3111,7 +3111,7 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -3134,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -3157,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -454,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -464,7 +476,7 @@
     <col min="2" max="2" width="44.265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2935,7 +2947,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -2944,7 +2956,7 @@
         <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2958,16 +2970,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2981,16 +2993,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3004,7 +3016,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -3013,7 +3025,7 @@
         <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3027,16 +3039,16 @@
         <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3050,16 +3062,16 @@
         <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3082,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3105,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3128,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3139,24 +3151,116 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,81 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -466,17 +541,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2766,7 +2841,7 @@
         <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>95</v>
@@ -2778,7 +2853,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
@@ -2786,22 +2861,22 @@
         <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102">
@@ -2809,22 +2884,22 @@
         <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
@@ -2832,7 +2907,7 @@
         <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -2841,13 +2916,13 @@
         <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
@@ -2855,22 +2930,22 @@
         <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
@@ -2878,7 +2953,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -2887,13 +2962,13 @@
         <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106">
@@ -2901,7 +2976,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -2910,145 +2985,145 @@
         <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3134,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3203,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3226,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3249,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3295,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3243,24 +3318,300 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2835,53 +2841,53 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>100</v>
@@ -2890,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>101</v>
@@ -2899,12 +2905,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -2913,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>103</v>
@@ -2922,12 +2928,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -2936,7 +2942,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>105</v>
@@ -2945,12 +2951,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>106</v>
@@ -2959,44 +2965,44 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>109</v>
@@ -3005,44 +3011,44 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>112</v>
@@ -3051,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>113</v>
@@ -3060,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>114</v>
@@ -3074,7 +3080,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -3083,12 +3089,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>116</v>
@@ -3097,7 +3103,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>117</v>
@@ -3106,44 +3112,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>123</v>
@@ -3157,7 +3163,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>124</v>
@@ -3166,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>125</v>
@@ -3180,19 +3186,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3203,16 +3209,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>128</v>
@@ -3226,16 +3232,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>130</v>
@@ -3249,7 +3255,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>131</v>
@@ -3258,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>132</v>
@@ -3272,19 +3278,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3295,16 +3301,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>123</v>
@@ -3318,7 +3324,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>124</v>
@@ -3327,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>125</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3364,7 +3370,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>137</v>
@@ -3373,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>138</v>
@@ -3387,7 +3393,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>139</v>
@@ -3396,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>140</v>
@@ -3410,7 +3416,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>141</v>
@@ -3419,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>142</v>
@@ -3433,7 +3439,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>143</v>
@@ -3442,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>144</v>
@@ -3456,7 +3462,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>145</v>
@@ -3465,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>146</v>
@@ -3479,19 +3485,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3502,19 +3508,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3525,19 +3531,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3548,16 +3554,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>152</v>
@@ -3571,7 +3577,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>153</v>
@@ -3580,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>154</v>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>155</v>
@@ -3603,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>156</v>
@@ -3612,6 +3618,29 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,12 +291,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -547,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2841,53 +2835,53 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>100</v>
@@ -2896,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>101</v>
@@ -2905,12 +2899,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -2919,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>103</v>
@@ -2928,12 +2922,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -2942,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>105</v>
@@ -2951,12 +2945,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>106</v>
@@ -2965,44 +2959,44 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>109</v>
@@ -3011,44 +3005,44 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>112</v>
@@ -3057,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>113</v>
@@ -3066,12 +3060,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>114</v>
@@ -3080,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>115</v>
@@ -3089,12 +3083,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>116</v>
@@ -3103,7 +3097,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>117</v>
@@ -3112,44 +3106,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>123</v>
@@ -3163,7 +3157,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>124</v>
@@ -3172,7 +3166,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>125</v>
@@ -3186,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,16 +3203,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>128</v>
@@ -3232,16 +3226,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>130</v>
@@ -3255,7 +3249,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>131</v>
@@ -3264,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>132</v>
@@ -3278,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3301,16 +3295,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>123</v>
@@ -3324,7 +3318,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>124</v>
@@ -3333,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>125</v>
@@ -3347,19 +3341,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,7 +3364,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>137</v>
@@ -3379,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>138</v>
@@ -3393,7 +3387,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>139</v>
@@ -3402,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>140</v>
@@ -3416,7 +3410,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>141</v>
@@ -3425,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>142</v>
@@ -3439,7 +3433,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>143</v>
@@ -3448,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>144</v>
@@ -3462,7 +3456,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>145</v>
@@ -3471,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>146</v>
@@ -3485,19 +3479,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3502,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3525,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3554,16 +3548,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>152</v>
@@ -3577,7 +3571,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>153</v>
@@ -3586,7 +3580,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>154</v>
@@ -3600,7 +3594,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>155</v>
@@ -3609,7 +3603,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>156</v>
@@ -3618,29 +3612,6 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -547,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -869,7 +881,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -892,7 +904,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -938,7 +950,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
@@ -961,7 +973,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1306,7 +1318,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
@@ -1352,7 +1364,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
@@ -1461,19 +1473,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1496,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1519,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1542,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1565,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1588,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1611,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1634,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1657,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1680,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1703,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1772,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1795,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1818,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1841,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1864,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1887,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1910,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1933,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1956,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1979,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1990,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2025,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2048,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2094,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2117,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2140,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2163,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2324,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2347,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2508,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2531,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2577,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2600,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2623,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2646,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2669,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2692,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2715,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2738,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2761,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2784,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2830,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2853,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,22 +2879,22 @@
         <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -2890,22 +2902,22 @@
         <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -2913,22 +2925,22 @@
         <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -2936,22 +2948,22 @@
         <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -2959,22 +2971,22 @@
         <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -2982,315 +2994,315 @@
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3313,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3336,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3359,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3382,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3405,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3428,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3451,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3474,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3497,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3520,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3543,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3566,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3589,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3612,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3623,24 +3635,162 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_018.xlsx
@@ -107,6 +107,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -321,9 +324,6 @@
   </si>
   <si>
     <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione - Descrizione</t>
@@ -801,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -809,7 +809,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -818,13 +818,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -832,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -841,13 +841,13 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -855,7 +855,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -864,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -887,13 +887,13 @@
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -901,7 +901,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -910,13 +910,13 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -933,13 +933,13 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -947,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -956,13 +956,13 @@
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +970,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -979,13 +979,13 @@
         <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -993,7 +993,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -1002,13 +1002,13 @@
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1016,7 +1016,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -1025,13 +1025,13 @@
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1039,7 +1039,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -1048,13 +1048,13 @@
         <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -1062,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -1071,13 +1071,13 @@
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -1085,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1094,13 +1094,13 @@
         <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -1108,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -1117,13 +1117,13 @@
         <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -1131,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1140,13 +1140,13 @@
         <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1163,13 +1163,13 @@
         <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1177,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1186,13 +1186,13 @@
         <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1200,7 +1200,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1209,13 +1209,13 @@
         <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -1223,7 +1223,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1232,13 +1232,13 @@
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -1255,13 +1255,13 @@
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -1278,13 +1278,13 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -1292,7 +1292,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1301,13 +1301,13 @@
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -1324,13 +1324,13 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -1338,7 +1338,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -1347,13 +1347,13 @@
         <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -1361,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1370,13 +1370,13 @@
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -1393,13 +1393,13 @@
         <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -1407,7 +1407,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -1416,13 +1416,13 @@
         <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -1430,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1439,13 +1439,13 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1462,13 +1462,13 @@
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -1476,7 +1476,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -1485,13 +1485,13 @@
         <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -1499,7 +1499,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1508,18 +1508,18 @@
         <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>28</v>
@@ -1528,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>30</v>
@@ -1537,725 +1537,725 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>28</v>
@@ -2264,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>30</v>
@@ -2278,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2324,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2347,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2508,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2531,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2600,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2646,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2669,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2692,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2715,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2738,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2761,19 +2761,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2784,19 +2784,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2807,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2830,19 +2830,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2853,19 +2853,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2876,19 +2876,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2899,19 +2899,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2922,19 +2922,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2945,19 +2945,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2968,19 +2968,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2991,19 +2991,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3014,30 +3014,30 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>104</v>
@@ -3046,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>105</v>
@@ -3055,12 +3055,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
@@ -3069,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>107</v>
@@ -3078,12 +3078,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>108</v>
@@ -3092,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>109</v>
@@ -3101,12 +3101,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>110</v>
@@ -3115,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>111</v>
@@ -3124,12 +3124,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>112</v>
@@ -3138,7 +3138,7 @@
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>19</v>
@@ -3147,12 +3147,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>113</v>
@@ -3161,7 +3161,7 @@
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>114</v>
@@ -3170,12 +3170,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>115</v>
@@ -3184,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>22</v>
@@ -3193,12 +3193,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>116</v>
@@ -3207,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>117</v>
@@ -3216,12 +3216,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>118</v>
@@ -3230,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>119</v>
@@ -3239,12 +3239,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>120</v>
@@ -3253,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>121</v>
@@ -3262,12 +3262,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>122</v>
@@ -3276,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>123</v>
@@ -3285,7 +3285,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
@@ -3362,7 +3362,7 @@
         <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
